--- a/WIP/Source/FILE_EXCEL/HOCSINH.xlsx
+++ b/WIP/Source/FILE_EXCEL/HOCSINH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="136">
   <si>
     <t>MAHS</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>22/1/2002</t>
+  </si>
+  <si>
+    <t>DIACHI</t>
+  </si>
+  <si>
+    <t>Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Thủ Dầu Một, Bình Dương</t>
+  </si>
+  <si>
+    <t>Biên Hòa, Đồng Nai</t>
   </si>
 </sst>
 </file>
@@ -809,27 +821,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,31 +850,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -869,31 +885,34 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -901,31 +920,34 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D3" s="6">
         <v>37289</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -933,31 +955,34 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -965,31 +990,34 @@
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -997,31 +1025,34 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1029,31 +1060,34 @@
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1061,31 +1095,34 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D8" s="6">
         <v>36780</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1093,31 +1130,34 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1125,31 +1165,34 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1157,31 +1200,34 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1189,31 +1235,34 @@
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1221,31 +1270,34 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1253,31 +1305,34 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1285,31 +1340,34 @@
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D15" s="6">
         <v>37290</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1317,31 +1375,34 @@
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D16" s="6">
         <v>37173</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1349,31 +1410,34 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1381,31 +1445,34 @@
         <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D18" s="6">
         <v>36832</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1413,31 +1480,34 @@
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1445,31 +1515,34 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D20" s="6">
         <v>37813</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1477,31 +1550,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1509,31 +1585,34 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1541,31 +1620,34 @@
         <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1573,31 +1655,34 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D24" s="6">
         <v>37297</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1605,33 +1690,36 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D25" s="6">
         <v>36923</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1639,33 +1727,36 @@
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D26" s="6">
         <v>37777</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1673,33 +1764,36 @@
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1707,33 +1801,36 @@
         <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1741,67 +1838,73 @@
         <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D29" s="6">
         <v>36934</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
+      <c r="C30" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D30" s="6">
         <v>37622</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1814,8 +1917,9 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1828,8 +1932,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1842,8 +1947,9 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1856,6 +1962,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
